--- a/medicine/Handicap/Syndrome_de_Townes-Brocks/Syndrome_de_Townes-Brocks.xlsx
+++ b/medicine/Handicap/Syndrome_de_Townes-Brocks/Syndrome_de_Townes-Brocks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Décrit en 1972[1], le syndrome de Townes-Brocks est un syndrome associant : 
+Décrit en 1972, le syndrome de Townes-Brocks est un syndrome associant : 
 des anomalies anales ;
 des anomalies auriculaires ;
 des anomalies des mains ;
@@ -516,7 +528,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La description initiale de 1972 de Townes-Brocks porte sur six cas. Les anomalies décrites sont :
 anomalies anales :
@@ -561,7 +575,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il faut au moins deux critères de la définition pour parler de syndrome de Townes-Brocks. En raison des anomalies décrites on peut discuter :
 Syndrome de Holt-Oram ;
@@ -594,10 +610,12 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>(fr) Site en français de renseignements sur les maladies rares et les médicaments orphelins
-(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:107480 [1]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(fr) Site en français de renseignements sur les maladies rares et les médicaments orphelins
+(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:107480 </t>
         </is>
       </c>
     </row>
